--- a/data_source/세무사 데이터전처리_20250116.xlsx
+++ b/data_source/세무사 데이터전처리_20250116.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoyo2\fas\tax_chatbot\data_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2F917E-3CAE-4F84-B0FF-903FCD1AE1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E929DB95-6C13-4818-8565-A7F1A36853DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12105" yWindow="0" windowWidth="26400" windowHeight="21705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="색인불가 파일리스트" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$575</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$569</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="1051">
   <si>
     <t>파일명</t>
   </si>
@@ -10008,62 +10008,6 @@
     </r>
   </si>
   <si>
-    <t>2025년 연말정산 세무 &gt; 연말정산 관련 주요 개정사항 &gt; 직무발명보상금 비과세 한도 상향 (p10)</t>
-  </si>
-  <si>
-    <t>종업원, 교직원 및 학생에게 지급하는 직무발명보상금 비과세 금액을 연 500만원 이하의 금액에서 연 700만원 이하로 상향.
-개인사업자 당사자 및 친족관계에 있는자, 법인의 지배주주등 및 그 특수관계인은 비과세 제외
-&lt;적용시기 : 2024.1.1.이후 지급받는 소득분부터 적용&gt;</t>
-  </si>
-  <si>
-    <t>2025년 연말정산 세무 &gt; 연말정산 관련 주요 개정사항 &gt; 주택연금 이자비용 소득공제 요건 완화 (p10)</t>
-  </si>
-  <si>
-    <t>주택담보노후연금 이자비용 소득공제 적용요건을 종전 기준시가 9억원 주택에서 기준시가 12억원 주택으로 확대
-&lt;적용시기 : 2024.1.1. 이후 취득하는 분부터 적용&gt;</t>
-  </si>
-  <si>
-    <t>2025년 연말정산 세무 &gt; 연말정산 관련 주요 개정사항 &gt; 자녀세액공제 확대 (p11)</t>
-  </si>
-  <si>
-    <t>적용대상 자녀를 기본공제대상자에 해당하는 자녀 및 손자녀(종전 자녀 한정)로 확대하고,
-공제세액을 ‘1명 : 15만원, 2명 : 35만원(종전 30만원), 3명 : 35만원(종전 30만원)
-+ 2명초과 1명당 30만원’으로 확대
-&lt;적용시기 : (공제액 상향) 2024.1.1.이 속하는 과세기간부터 적용
-(공제대상 추가) 2024.1.1. 이후 종합소득과세표준을 신고하거나 소득세를 결정하거나 연말정산하는 경우부터 적용&gt;</t>
-  </si>
-  <si>
-    <t>2025년 연말정산 세무 &gt; 연말정산 관련 주요 개정사항 &gt; 산후조리원에 지급하는 의료비 세액공제 강화 (p12)</t>
-  </si>
-  <si>
-    <t>산후조리원에 지급하는 비용에 대한 의료비 세액공제 기준을 종전 총급여액 7천만원 이하인자 에서 급여제한을 삭제하여 확대하였고, 본인에 대한 의료비와 동일하게 공제한도 제한대상에서 제외함(다만, 산후조리원 지급비용에 대한 한도는 연간 200만원으로 동일)
-&lt;적용시기 : 2024.1.1. 이후 지출하는 분부터 적용</t>
-  </si>
-  <si>
-    <t>2025년 연말정산 세무 &gt; 연말정산 관련 주요 개정사항 &gt; 주택청약종합저축 소득공제 한도 상향 (p13)</t>
-  </si>
-  <si>
-    <t>주택청약종합저축 소득공제 한도를 종전 연 납입한도 240만원에서 연 300만원으로 상향
-&lt;적용시기 : 2024.1.1. 이후 납입하는 분부터 적용&gt;</t>
-  </si>
-  <si>
-    <t>2025년 연말정산 세무 &gt; 연말정산 관련 주요 개정사항 &gt; 월세액 세액공제 소득기준 및 한도 상향 (p13)</t>
-  </si>
-  <si>
-    <t>월세액 세액공제 대상기준을 종전 총급여 7천만원(종합소득금액 6천만원)에서 총급여 8천만원
-(종합소득금액 7천만원)이하로 확대하고, 공제한도를 종전 750만원에서 1,000만원으로 상향
-&lt;적용시기 : 2024.1.1. 이후 개시하는 과세연도분부터 적용&gt;</t>
-  </si>
-  <si>
-    <t>2025년 연말정산 세무 &gt; 연말정산 관련 주요 개정사항 &gt; 신용카드 등 사용금액 증가분에 대한 소득공제 추가 (p14)</t>
-  </si>
-  <si>
-    <t>신용카드 등 사용금액 소득공제 대상에 2024년 신용카드 등 사용금액 증가분에 대한
-소득공제 10%를 신설(증가분이란 2023년 신용카드 등 사용금액의 105%를 초과하는 금액을 말함).
-또한, 2024년 신용카드 등 사용금액 증가분은 100만원을 한도로 추가공제 하도록 규정
-&lt;적용기한 : 2025.12.31. 까지&gt;</t>
-  </si>
-  <si>
     <t>2025년 연말정산 세무 &gt; 제1장. 근로소득 연말정산 (이론편) &gt; 제1절. 근로소득자의 연말정산 &gt; 1. 연말정산 의의 (p43)</t>
   </si>
   <si>
@@ -12781,6 +12725,179 @@
         <family val="2"/>
       </rPr>
       <t>.)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">직무발명보상금 비과세 한도 상향 (p10)
+종업원, 교직원 및 학생에게 지급하는 직무발명보상금 비과세 금액을 연 500만원 이하의 금액에서 연 700만원 이하로 상향.
+개인사업자 당사자 및 친족관계에 있는자, 법인의 지배주주등 및 그 특수관계인은 비과세 제외
+&lt;적용시기 : 2024.1.1.이후 지급받는 소득분부터 적용&gt;
+주택연금 이자비용 소득공제 요건 완화 (p10)
+주택담보노후연금 이자비용 소득공제 적용요건을 종전 기준시가 9억원 주택에서 기준시가 12억원 주택으로 확대
+&lt;적용시기 : 2024.1.1. 이후 취득하는 분부터 적용&gt;
+자녀세액공제 확대 (p11)
+적용대상 자녀를 기본공제대상자에 해당하는 자녀 및 손자녀(종전 자녀 한정)로 확대하고,
+공제세액을 ‘1명 : 15만원, 2명 : 35만원(종전 30만원), 3명 : 35만원(종전 30만원)
++ 2명초과 1명당 30만원’으로 확대
+&lt;적용시기 : (공제액 상향) 2024.1.1.이 속하는 과세기간부터 적용
+(공제대상 추가) 2024.1.1. 이후 종합소득과세표준을 신고하거나 소득세를 결정하거나 연말정산하는 경우부터 적용&gt;
+산후조리원에 지급하는 의료비 세액공제 강화 (p12)
+산후조리원에 지급하는 비용에 대한 의료비 세액공제 기준을 종전 총급여액 7천만원 이하인자 에서 급여제한을 삭제하여 확대하였고, 본인에 대한 의료비와 동일하게 공제한도 제한대상에서 제외함(다만, 산후조리원 지급비용에 대한 한도는 연간 200만원으로 동일)
+&lt;적용시기 : 2024.1.1. 이후 지출하는 분부터 적용
+ 주택청약종합저축 소득공제 한도 상향 (p13)
+주택청약종합저축 소득공제 한도를 종전 연 납입한도 240만원에서 연 300만원으로 상향
+&lt;적용시기 : 2024.1.1. 이후 납입하는 분부터 적용&gt;
+월세액 세액공제 소득기준 및 한도 상향 (p13)
+월세액 세액공제 대상기준을 종전 총급여 7천만원(종합소득금액 6천만원)에서 총급여 8천만원
+(종합소득금액 7천만원)이하로 확대하고, 공제한도를 종전 750만원에서 1,000만원으로 상향
+&lt;적용시기 : 2024.1.1. 이후 개시하는 과세연도분부터 적용&gt;
+신용카드 등 사용금액 증가분에 대한 소득공제 추가 (p14)
+신용카드 등 사용금액 소득공제 대상에 2024년 신용카드 등 사용금액 증가분에 대한
+소득공제 10%를 신설(증가분이란 2023년 신용카드 등 사용금액의 105%를 초과하는 금액을 말함).
+또한, 2024년 신용카드 등 사용금액 증가분은 100만원을 한도로 추가공제 하도록 규정
+&lt;적용기한 : 2025.12.31. 까지&gt;
+매년 1월부터 12월까지 발생한 총근로소득에 대한 정확한 세액을 계산한 후 매월 원천징수한 세액의 합계액과 비교하여 추가 징수 또는 환급을 해 주는 과정을 연말정산이라 한다
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연말정산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세무</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연말정산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개정사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -12947,7 +13064,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13022,6 +13139,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -13329,10 +13449,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F575"/>
+  <dimension ref="A1:F569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G275" sqref="G275"/>
+    <sheetView tabSelected="1" topLeftCell="D446" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D471" sqref="D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18755,7 +18875,7 @@
         <v>551</v>
       </c>
       <c r="D283" s="27" t="s">
-        <v>1062</v>
+        <v>1048</v>
       </c>
       <c r="E283" s="19">
         <f t="shared" si="4"/>
@@ -21874,7 +21994,7 @@
         <v>824</v>
       </c>
       <c r="E447" s="19">
-        <f t="shared" ref="E447:E510" si="7">LEN(D447)</f>
+        <f t="shared" ref="E447:E504" si="7">LEN(D447)</f>
         <v>504</v>
       </c>
       <c r="F447" s="20"/>
@@ -22438,14 +22558,14 @@
         <v>875</v>
       </c>
       <c r="C477" s="23" t="s">
-        <v>881</v>
-      </c>
-      <c r="D477" s="18" t="s">
-        <v>882</v>
+        <v>1050</v>
+      </c>
+      <c r="D477" s="28" t="s">
+        <v>1049</v>
       </c>
       <c r="E477" s="19">
         <f t="shared" si="7"/>
-        <v>155</v>
+        <v>1357</v>
       </c>
       <c r="F477" s="20"/>
     </row>
@@ -22457,14 +22577,14 @@
         <v>875</v>
       </c>
       <c r="C478" s="23" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D478" s="18" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E478" s="19">
         <f t="shared" si="7"/>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F478" s="20"/>
     </row>
@@ -22476,14 +22596,14 @@
         <v>875</v>
       </c>
       <c r="C479" s="23" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D479" s="18" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E479" s="19">
         <f t="shared" si="7"/>
-        <v>235</v>
+        <v>107</v>
       </c>
       <c r="F479" s="20"/>
     </row>
@@ -22495,14 +22615,14 @@
         <v>875</v>
       </c>
       <c r="C480" s="23" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D480" s="18" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E480" s="19">
         <f t="shared" si="7"/>
-        <v>174</v>
+        <v>310</v>
       </c>
       <c r="F480" s="20"/>
     </row>
@@ -22514,14 +22634,14 @@
         <v>875</v>
       </c>
       <c r="C481" s="23" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D481" s="18" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E481" s="19">
         <f t="shared" si="7"/>
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="F481" s="20"/>
     </row>
@@ -22533,14 +22653,14 @@
         <v>875</v>
       </c>
       <c r="C482" s="23" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D482" s="18" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E482" s="19">
         <f t="shared" si="7"/>
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="F482" s="20"/>
     </row>
@@ -22552,14 +22672,14 @@
         <v>875</v>
       </c>
       <c r="C483" s="23" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D483" s="18" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E483" s="19">
         <f t="shared" si="7"/>
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="F483" s="20"/>
     </row>
@@ -22571,14 +22691,14 @@
         <v>875</v>
       </c>
       <c r="C484" s="23" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D484" s="18" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E484" s="19">
         <f t="shared" si="7"/>
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="F484" s="20"/>
     </row>
@@ -22590,14 +22710,14 @@
         <v>875</v>
       </c>
       <c r="C485" s="23" t="s">
+        <v>894</v>
+      </c>
+      <c r="D485" s="18" t="s">
         <v>895</v>
-      </c>
-      <c r="D485" s="18" t="s">
-        <v>897</v>
       </c>
       <c r="E485" s="19">
         <f t="shared" si="7"/>
-        <v>107</v>
+        <v>315</v>
       </c>
       <c r="F485" s="20"/>
     </row>
@@ -22609,14 +22729,14 @@
         <v>875</v>
       </c>
       <c r="C486" s="23" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D486" s="18" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E486" s="19">
         <f t="shared" si="7"/>
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="F486" s="20"/>
     </row>
@@ -22628,14 +22748,14 @@
         <v>875</v>
       </c>
       <c r="C487" s="23" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="D487" s="18" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="E487" s="19">
         <f t="shared" si="7"/>
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F487" s="20"/>
     </row>
@@ -22647,14 +22767,14 @@
         <v>875</v>
       </c>
       <c r="C488" s="23" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D488" s="18" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="E488" s="19">
         <f t="shared" si="7"/>
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="F488" s="20"/>
     </row>
@@ -22666,14 +22786,14 @@
         <v>875</v>
       </c>
       <c r="C489" s="23" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D489" s="18" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E489" s="19">
         <f t="shared" si="7"/>
-        <v>51</v>
+        <v>221</v>
       </c>
       <c r="F489" s="20"/>
     </row>
@@ -22685,14 +22805,14 @@
         <v>875</v>
       </c>
       <c r="C490" s="23" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D490" s="18" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E490" s="19">
         <f t="shared" si="7"/>
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="F490" s="20"/>
     </row>
@@ -22704,14 +22824,14 @@
         <v>875</v>
       </c>
       <c r="C491" s="23" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D491" s="18" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E491" s="19">
         <f t="shared" si="7"/>
-        <v>315</v>
+        <v>203</v>
       </c>
       <c r="F491" s="20"/>
     </row>
@@ -22723,14 +22843,14 @@
         <v>875</v>
       </c>
       <c r="C492" s="23" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D492" s="18" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E492" s="19">
         <f t="shared" si="7"/>
-        <v>272</v>
+        <v>341</v>
       </c>
       <c r="F492" s="20"/>
     </row>
@@ -22742,14 +22862,14 @@
         <v>875</v>
       </c>
       <c r="C493" s="23" t="s">
+        <v>909</v>
+      </c>
+      <c r="D493" s="18" t="s">
         <v>910</v>
-      </c>
-      <c r="D493" s="18" t="s">
-        <v>912</v>
       </c>
       <c r="E493" s="19">
         <f t="shared" si="7"/>
-        <v>232</v>
+        <v>122</v>
       </c>
       <c r="F493" s="20"/>
     </row>
@@ -22761,14 +22881,14 @@
         <v>875</v>
       </c>
       <c r="C494" s="23" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D494" s="18" t="s">
-        <v>914</v>
+        <v>357</v>
       </c>
       <c r="E494" s="19">
         <f t="shared" si="7"/>
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="F494" s="20"/>
     </row>
@@ -22780,14 +22900,14 @@
         <v>875</v>
       </c>
       <c r="C495" s="23" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D495" s="18" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="E495" s="19">
         <f t="shared" si="7"/>
-        <v>221</v>
+        <v>144</v>
       </c>
       <c r="F495" s="20"/>
     </row>
@@ -22799,14 +22919,14 @@
         <v>875</v>
       </c>
       <c r="C496" s="23" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D496" s="18" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E496" s="19">
         <f t="shared" si="7"/>
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="F496" s="20"/>
     </row>
@@ -22818,14 +22938,14 @@
         <v>875</v>
       </c>
       <c r="C497" s="23" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D497" s="18" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="E497" s="19">
         <f t="shared" si="7"/>
-        <v>203</v>
+        <v>297</v>
       </c>
       <c r="F497" s="20"/>
     </row>
@@ -22837,14 +22957,14 @@
         <v>875</v>
       </c>
       <c r="C498" s="23" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D498" s="18" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="E498" s="19">
         <f t="shared" si="7"/>
-        <v>341</v>
+        <v>76</v>
       </c>
       <c r="F498" s="20"/>
     </row>
@@ -22856,14 +22976,14 @@
         <v>875</v>
       </c>
       <c r="C499" s="23" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D499" s="18" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="E499" s="19">
         <f t="shared" si="7"/>
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="F499" s="20"/>
     </row>
@@ -22875,14 +22995,14 @@
         <v>875</v>
       </c>
       <c r="C500" s="23" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D500" s="18" t="s">
-        <v>357</v>
+        <v>923</v>
       </c>
       <c r="E500" s="19">
         <f t="shared" si="7"/>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F500" s="20"/>
     </row>
@@ -22894,14 +23014,14 @@
         <v>875</v>
       </c>
       <c r="C501" s="23" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D501" s="18" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E501" s="19">
         <f t="shared" si="7"/>
-        <v>144</v>
+        <v>441</v>
       </c>
       <c r="F501" s="20"/>
     </row>
@@ -22913,14 +23033,14 @@
         <v>875</v>
       </c>
       <c r="C502" s="23" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D502" s="18" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E502" s="19">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="F502" s="20"/>
     </row>
@@ -22932,14 +23052,14 @@
         <v>875</v>
       </c>
       <c r="C503" s="23" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D503" s="18" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E503" s="19">
         <f t="shared" si="7"/>
-        <v>297</v>
+        <v>539</v>
       </c>
       <c r="F503" s="20"/>
     </row>
@@ -22951,14 +23071,14 @@
         <v>875</v>
       </c>
       <c r="C504" s="23" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="D504" s="18" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="E504" s="19">
         <f t="shared" si="7"/>
-        <v>76</v>
+        <v>536</v>
       </c>
       <c r="F504" s="20"/>
     </row>
@@ -22970,14 +23090,14 @@
         <v>875</v>
       </c>
       <c r="C505" s="23" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="D505" s="18" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="E505" s="19">
-        <f t="shared" si="7"/>
-        <v>46</v>
+        <f t="shared" ref="E505:E568" si="8">LEN(D505)</f>
+        <v>240</v>
       </c>
       <c r="F505" s="20"/>
     </row>
@@ -22989,14 +23109,14 @@
         <v>875</v>
       </c>
       <c r="C506" s="23" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D506" s="18" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="E506" s="19">
-        <f t="shared" si="7"/>
-        <v>41</v>
+        <f t="shared" si="8"/>
+        <v>332</v>
       </c>
       <c r="F506" s="20"/>
     </row>
@@ -23008,14 +23128,14 @@
         <v>875</v>
       </c>
       <c r="C507" s="23" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="D507" s="18" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="E507" s="19">
-        <f t="shared" si="7"/>
-        <v>441</v>
+        <f t="shared" si="8"/>
+        <v>367</v>
       </c>
       <c r="F507" s="20"/>
     </row>
@@ -23027,14 +23147,14 @@
         <v>875</v>
       </c>
       <c r="C508" s="23" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D508" s="18" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="E508" s="19">
-        <f t="shared" si="7"/>
-        <v>237</v>
+        <f t="shared" si="8"/>
+        <v>132</v>
       </c>
       <c r="F508" s="20"/>
     </row>
@@ -23046,14 +23166,14 @@
         <v>875</v>
       </c>
       <c r="C509" s="23" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D509" s="18" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="E509" s="19">
-        <f t="shared" si="7"/>
-        <v>539</v>
+        <f t="shared" si="8"/>
+        <v>43</v>
       </c>
       <c r="F509" s="20"/>
     </row>
@@ -23065,14 +23185,14 @@
         <v>875</v>
       </c>
       <c r="C510" s="23" t="s">
+        <v>941</v>
+      </c>
+      <c r="D510" s="18" t="s">
         <v>942</v>
       </c>
-      <c r="D510" s="18" t="s">
-        <v>944</v>
-      </c>
       <c r="E510" s="19">
-        <f t="shared" si="7"/>
-        <v>536</v>
+        <f t="shared" si="8"/>
+        <v>78</v>
       </c>
       <c r="F510" s="20"/>
     </row>
@@ -23084,14 +23204,14 @@
         <v>875</v>
       </c>
       <c r="C511" s="23" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D511" s="18" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E511" s="19">
-        <f t="shared" ref="E511:E574" si="8">LEN(D511)</f>
-        <v>240</v>
+        <f t="shared" si="8"/>
+        <v>425</v>
       </c>
       <c r="F511" s="20"/>
     </row>
@@ -23103,14 +23223,14 @@
         <v>875</v>
       </c>
       <c r="C512" s="23" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D512" s="18" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E512" s="19">
         <f t="shared" si="8"/>
-        <v>332</v>
+        <v>63</v>
       </c>
       <c r="F512" s="20"/>
     </row>
@@ -23122,14 +23242,14 @@
         <v>875</v>
       </c>
       <c r="C513" s="23" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D513" s="18" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E513" s="19">
         <f t="shared" si="8"/>
-        <v>367</v>
+        <v>168</v>
       </c>
       <c r="F513" s="20"/>
     </row>
@@ -23140,15 +23260,15 @@
       <c r="B514" s="17" t="s">
         <v>875</v>
       </c>
-      <c r="C514" s="23" t="s">
-        <v>951</v>
+      <c r="C514" s="18" t="s">
+        <v>949</v>
       </c>
       <c r="D514" s="18" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E514" s="19">
         <f t="shared" si="8"/>
-        <v>132</v>
+        <v>221</v>
       </c>
       <c r="F514" s="20"/>
     </row>
@@ -23159,15 +23279,15 @@
       <c r="B515" s="17" t="s">
         <v>875</v>
       </c>
-      <c r="C515" s="23" t="s">
-        <v>953</v>
+      <c r="C515" s="18" t="s">
+        <v>951</v>
       </c>
       <c r="D515" s="18" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E515" s="19">
         <f t="shared" si="8"/>
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="F515" s="20"/>
     </row>
@@ -23178,15 +23298,15 @@
       <c r="B516" s="17" t="s">
         <v>875</v>
       </c>
-      <c r="C516" s="23" t="s">
-        <v>955</v>
+      <c r="C516" s="18" t="s">
+        <v>953</v>
       </c>
       <c r="D516" s="18" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E516" s="19">
         <f t="shared" si="8"/>
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="F516" s="20"/>
     </row>
@@ -23197,15 +23317,15 @@
       <c r="B517" s="17" t="s">
         <v>875</v>
       </c>
-      <c r="C517" s="23" t="s">
-        <v>957</v>
+      <c r="C517" s="18" t="s">
+        <v>955</v>
       </c>
       <c r="D517" s="18" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E517" s="19">
         <f t="shared" si="8"/>
-        <v>425</v>
+        <v>92</v>
       </c>
       <c r="F517" s="20"/>
     </row>
@@ -23216,15 +23336,15 @@
       <c r="B518" s="17" t="s">
         <v>875</v>
       </c>
-      <c r="C518" s="23" t="s">
-        <v>959</v>
+      <c r="C518" s="18" t="s">
+        <v>957</v>
       </c>
       <c r="D518" s="18" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E518" s="19">
         <f t="shared" si="8"/>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F518" s="20"/>
     </row>
@@ -23235,15 +23355,15 @@
       <c r="B519" s="17" t="s">
         <v>875</v>
       </c>
-      <c r="C519" s="23" t="s">
-        <v>961</v>
+      <c r="C519" s="18" t="s">
+        <v>959</v>
       </c>
       <c r="D519" s="18" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E519" s="19">
         <f t="shared" si="8"/>
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="F519" s="20"/>
     </row>
@@ -23255,14 +23375,14 @@
         <v>875</v>
       </c>
       <c r="C520" s="18" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D520" s="18" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E520" s="19">
         <f t="shared" si="8"/>
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="F520" s="20"/>
     </row>
@@ -23274,14 +23394,14 @@
         <v>875</v>
       </c>
       <c r="C521" s="18" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D521" s="18" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E521" s="19">
         <f t="shared" si="8"/>
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="F521" s="20"/>
     </row>
@@ -23293,14 +23413,14 @@
         <v>875</v>
       </c>
       <c r="C522" s="18" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D522" s="18" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E522" s="19">
         <f t="shared" si="8"/>
-        <v>52</v>
+        <v>676</v>
       </c>
       <c r="F522" s="20"/>
     </row>
@@ -23312,14 +23432,14 @@
         <v>875</v>
       </c>
       <c r="C523" s="18" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D523" s="18" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E523" s="19">
         <f t="shared" si="8"/>
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="F523" s="20"/>
     </row>
@@ -23331,14 +23451,14 @@
         <v>875</v>
       </c>
       <c r="C524" s="18" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D524" s="18" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E524" s="19">
         <f t="shared" si="8"/>
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="F524" s="20"/>
     </row>
@@ -23350,14 +23470,14 @@
         <v>875</v>
       </c>
       <c r="C525" s="18" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D525" s="18" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E525" s="19">
         <f t="shared" si="8"/>
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="F525" s="20"/>
     </row>
@@ -23369,14 +23489,14 @@
         <v>875</v>
       </c>
       <c r="C526" s="18" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D526" s="18" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E526" s="19">
         <f t="shared" si="8"/>
-        <v>183</v>
+        <v>54</v>
       </c>
       <c r="F526" s="20"/>
     </row>
@@ -23388,14 +23508,14 @@
         <v>875</v>
       </c>
       <c r="C527" s="18" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="D527" s="18" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="E527" s="19">
         <f t="shared" si="8"/>
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="F527" s="20"/>
     </row>
@@ -23407,14 +23527,14 @@
         <v>875</v>
       </c>
       <c r="C528" s="18" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D528" s="18" t="s">
-        <v>980</v>
+        <v>588</v>
       </c>
       <c r="E528" s="19">
         <f t="shared" si="8"/>
-        <v>676</v>
+        <v>201</v>
       </c>
       <c r="F528" s="20"/>
     </row>
@@ -23426,14 +23546,14 @@
         <v>875</v>
       </c>
       <c r="C529" s="18" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="D529" s="18" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="E529" s="19">
         <f t="shared" si="8"/>
-        <v>156</v>
+        <v>257</v>
       </c>
       <c r="F529" s="20"/>
     </row>
@@ -23445,14 +23565,14 @@
         <v>875</v>
       </c>
       <c r="C530" s="18" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="D530" s="18" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="E530" s="19">
         <f t="shared" si="8"/>
-        <v>336</v>
+        <v>214</v>
       </c>
       <c r="F530" s="20"/>
     </row>
@@ -23464,14 +23584,14 @@
         <v>875</v>
       </c>
       <c r="C531" s="18" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="D531" s="18" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="E531" s="19">
         <f t="shared" si="8"/>
-        <v>148</v>
+        <v>298</v>
       </c>
       <c r="F531" s="20"/>
     </row>
@@ -23483,14 +23603,14 @@
         <v>875</v>
       </c>
       <c r="C532" s="18" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D532" s="18" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="E532" s="19">
         <f t="shared" si="8"/>
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="F532" s="20"/>
     </row>
@@ -23502,14 +23622,14 @@
         <v>875</v>
       </c>
       <c r="C533" s="18" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D533" s="18" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="E533" s="19">
         <f t="shared" si="8"/>
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="F533" s="20"/>
     </row>
@@ -23521,14 +23641,14 @@
         <v>875</v>
       </c>
       <c r="C534" s="18" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="D534" s="18" t="s">
-        <v>588</v>
+        <v>985</v>
       </c>
       <c r="E534" s="19">
         <f t="shared" si="8"/>
-        <v>201</v>
+        <v>596</v>
       </c>
       <c r="F534" s="20"/>
     </row>
@@ -23540,14 +23660,14 @@
         <v>875</v>
       </c>
       <c r="C535" s="18" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="D535" s="18" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="E535" s="19">
         <f t="shared" si="8"/>
-        <v>257</v>
+        <v>67</v>
       </c>
       <c r="F535" s="20"/>
     </row>
@@ -23559,14 +23679,14 @@
         <v>875</v>
       </c>
       <c r="C536" s="18" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="D536" s="18" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="E536" s="19">
         <f t="shared" si="8"/>
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="F536" s="20"/>
     </row>
@@ -23578,14 +23698,14 @@
         <v>875</v>
       </c>
       <c r="C537" s="18" t="s">
+        <v>990</v>
+      </c>
+      <c r="D537" s="18" t="s">
         <v>991</v>
-      </c>
-      <c r="D537" s="18" t="s">
-        <v>994</v>
       </c>
       <c r="E537" s="19">
         <f t="shared" si="8"/>
-        <v>298</v>
+        <v>40</v>
       </c>
       <c r="F537" s="20"/>
     </row>
@@ -23597,14 +23717,14 @@
         <v>875</v>
       </c>
       <c r="C538" s="18" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D538" s="18" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E538" s="19">
         <f t="shared" si="8"/>
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F538" s="20"/>
     </row>
@@ -23616,14 +23736,14 @@
         <v>875</v>
       </c>
       <c r="C539" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="D539" s="18" t="s">
         <v>995</v>
-      </c>
-      <c r="D539" s="18" t="s">
-        <v>997</v>
       </c>
       <c r="E539" s="19">
         <f t="shared" si="8"/>
-        <v>273</v>
+        <v>107</v>
       </c>
       <c r="F539" s="20"/>
     </row>
@@ -23635,14 +23755,14 @@
         <v>875</v>
       </c>
       <c r="C540" s="18" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D540" s="18" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E540" s="19">
         <f t="shared" si="8"/>
-        <v>596</v>
+        <v>209</v>
       </c>
       <c r="F540" s="20"/>
     </row>
@@ -23654,14 +23774,14 @@
         <v>875</v>
       </c>
       <c r="C541" s="18" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D541" s="18" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E541" s="19">
         <f t="shared" si="8"/>
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="F541" s="20"/>
     </row>
@@ -23673,14 +23793,14 @@
         <v>875</v>
       </c>
       <c r="C542" s="18" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D542" s="18" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E542" s="19">
         <f t="shared" si="8"/>
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F542" s="20"/>
     </row>
@@ -23692,14 +23812,14 @@
         <v>875</v>
       </c>
       <c r="C543" s="18" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D543" s="18" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E543" s="19">
         <f t="shared" si="8"/>
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="F543" s="20"/>
     </row>
@@ -23711,14 +23831,14 @@
         <v>875</v>
       </c>
       <c r="C544" s="18" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="D544" s="18" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E544" s="19">
         <f t="shared" si="8"/>
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F544" s="20"/>
     </row>
@@ -23730,14 +23850,14 @@
         <v>875</v>
       </c>
       <c r="C545" s="18" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="D545" s="18" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E545" s="19">
         <f t="shared" si="8"/>
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="F545" s="20"/>
     </row>
@@ -23749,14 +23869,14 @@
         <v>875</v>
       </c>
       <c r="C546" s="18" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D546" s="18" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="E546" s="19">
         <f t="shared" si="8"/>
-        <v>209</v>
+        <v>52</v>
       </c>
       <c r="F546" s="20"/>
     </row>
@@ -23768,14 +23888,14 @@
         <v>875</v>
       </c>
       <c r="C547" s="18" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="D547" s="18" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="E547" s="19">
         <f t="shared" si="8"/>
-        <v>115</v>
+        <v>251</v>
       </c>
       <c r="F547" s="20"/>
     </row>
@@ -23787,14 +23907,14 @@
         <v>875</v>
       </c>
       <c r="C548" s="18" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="D548" s="18" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="E548" s="19">
         <f t="shared" si="8"/>
-        <v>177</v>
+        <v>360</v>
       </c>
       <c r="F548" s="20"/>
     </row>
@@ -23806,14 +23926,14 @@
         <v>875</v>
       </c>
       <c r="C549" s="18" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="D549" s="18" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="E549" s="19">
         <f t="shared" si="8"/>
-        <v>141</v>
+        <v>294</v>
       </c>
       <c r="F549" s="20"/>
     </row>
@@ -23825,14 +23945,14 @@
         <v>875</v>
       </c>
       <c r="C550" s="18" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="D550" s="18" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E550" s="19">
         <f t="shared" si="8"/>
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="F550" s="20"/>
     </row>
@@ -23844,14 +23964,14 @@
         <v>875</v>
       </c>
       <c r="C551" s="18" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="D551" s="18" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="E551" s="19">
         <f t="shared" si="8"/>
-        <v>163</v>
+        <v>259</v>
       </c>
       <c r="F551" s="20"/>
     </row>
@@ -23863,14 +23983,14 @@
         <v>875</v>
       </c>
       <c r="C552" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D552" s="18" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E552" s="19">
         <f t="shared" si="8"/>
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F552" s="20"/>
     </row>
@@ -23882,14 +24002,14 @@
         <v>875</v>
       </c>
       <c r="C553" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D553" s="18" t="s">
         <v>1019</v>
-      </c>
-      <c r="D553" s="18" t="s">
-        <v>1022</v>
       </c>
       <c r="E553" s="19">
         <f t="shared" si="8"/>
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="F553" s="20"/>
     </row>
@@ -23901,14 +24021,14 @@
         <v>875</v>
       </c>
       <c r="C554" s="18" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="D554" s="18" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E554" s="19">
         <f t="shared" si="8"/>
-        <v>360</v>
+        <v>70</v>
       </c>
       <c r="F554" s="20"/>
     </row>
@@ -23920,14 +24040,14 @@
         <v>875</v>
       </c>
       <c r="C555" s="18" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="D555" s="18" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E555" s="19">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>54</v>
       </c>
       <c r="F555" s="20"/>
     </row>
@@ -23939,14 +24059,14 @@
         <v>875</v>
       </c>
       <c r="C556" s="18" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="D556" s="18" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E556" s="19">
         <f t="shared" si="8"/>
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="F556" s="20"/>
     </row>
@@ -23958,14 +24078,14 @@
         <v>875</v>
       </c>
       <c r="C557" s="18" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="D557" s="18" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="E557" s="19">
         <f t="shared" si="8"/>
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="F557" s="20"/>
     </row>
@@ -23977,14 +24097,14 @@
         <v>875</v>
       </c>
       <c r="C558" s="18" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="D558" s="18" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="E558" s="19">
         <f t="shared" si="8"/>
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="F558" s="20"/>
     </row>
@@ -23996,14 +24116,14 @@
         <v>875</v>
       </c>
       <c r="C559" s="18" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="D559" s="18" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="E559" s="19">
         <f t="shared" si="8"/>
-        <v>185</v>
+        <v>363</v>
       </c>
       <c r="F559" s="20"/>
     </row>
@@ -24015,14 +24135,14 @@
         <v>875</v>
       </c>
       <c r="C560" s="18" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="D560" s="18" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="E560" s="19">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F560" s="20"/>
     </row>
@@ -24034,14 +24154,14 @@
         <v>875</v>
       </c>
       <c r="C561" s="18" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="D561" s="18" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="E561" s="19">
         <f t="shared" si="8"/>
-        <v>54</v>
+        <v>491</v>
       </c>
       <c r="F561" s="20"/>
     </row>
@@ -24053,14 +24173,14 @@
         <v>875</v>
       </c>
       <c r="C562" s="18" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="D562" s="18" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="E562" s="19">
         <f t="shared" si="8"/>
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F562" s="20"/>
     </row>
@@ -24072,14 +24192,14 @@
         <v>875</v>
       </c>
       <c r="C563" s="18" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="D563" s="18" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="E563" s="19">
         <f t="shared" si="8"/>
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="F563" s="20"/>
     </row>
@@ -24091,14 +24211,14 @@
         <v>875</v>
       </c>
       <c r="C564" s="18" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="D564" s="18" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="E564" s="19">
         <f t="shared" si="8"/>
-        <v>93</v>
+        <v>563</v>
       </c>
       <c r="F564" s="20"/>
     </row>
@@ -24110,14 +24230,14 @@
         <v>875</v>
       </c>
       <c r="C565" s="18" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="D565" s="18" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="E565" s="19">
         <f t="shared" si="8"/>
-        <v>363</v>
+        <v>212</v>
       </c>
       <c r="F565" s="20"/>
     </row>
@@ -24129,14 +24249,14 @@
         <v>875</v>
       </c>
       <c r="C566" s="18" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="D566" s="18" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="E566" s="19">
         <f t="shared" si="8"/>
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="F566" s="20"/>
     </row>
@@ -24148,14 +24268,14 @@
         <v>875</v>
       </c>
       <c r="C567" s="18" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D567" s="18" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="E567" s="19">
         <f t="shared" si="8"/>
-        <v>491</v>
+        <v>241</v>
       </c>
       <c r="F567" s="20"/>
     </row>
@@ -24167,14 +24287,14 @@
         <v>875</v>
       </c>
       <c r="C568" s="18" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="D568" s="18" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="E568" s="19">
         <f t="shared" si="8"/>
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="F568" s="20"/>
     </row>
@@ -24186,133 +24306,19 @@
         <v>875</v>
       </c>
       <c r="C569" s="18" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="D569" s="18" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="E569" s="19">
-        <f t="shared" si="8"/>
-        <v>272</v>
+        <f t="shared" ref="E569" si="9">LEN(D569)</f>
+        <v>185</v>
       </c>
       <c r="F569" s="20"/>
     </row>
-    <row r="570" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A570" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B570" s="17" t="s">
-        <v>875</v>
-      </c>
-      <c r="C570" s="18" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D570" s="18" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E570" s="19">
-        <f t="shared" si="8"/>
-        <v>563</v>
-      </c>
-      <c r="F570" s="20"/>
-    </row>
-    <row r="571" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A571" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B571" s="17" t="s">
-        <v>875</v>
-      </c>
-      <c r="C571" s="18" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D571" s="18" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E571" s="19">
-        <f t="shared" si="8"/>
-        <v>212</v>
-      </c>
-      <c r="F571" s="20"/>
-    </row>
-    <row r="572" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A572" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B572" s="17" t="s">
-        <v>875</v>
-      </c>
-      <c r="C572" s="18" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D572" s="18" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E572" s="19">
-        <f t="shared" si="8"/>
-        <v>121</v>
-      </c>
-      <c r="F572" s="20"/>
-    </row>
-    <row r="573" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A573" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B573" s="17" t="s">
-        <v>875</v>
-      </c>
-      <c r="C573" s="18" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D573" s="18" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E573" s="19">
-        <f t="shared" si="8"/>
-        <v>241</v>
-      </c>
-      <c r="F573" s="20"/>
-    </row>
-    <row r="574" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A574" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B574" s="17" t="s">
-        <v>875</v>
-      </c>
-      <c r="C574" s="18" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D574" s="18" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E574" s="19">
-        <f t="shared" si="8"/>
-        <v>171</v>
-      </c>
-      <c r="F574" s="20"/>
-    </row>
-    <row r="575" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A575" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B575" s="17" t="s">
-        <v>875</v>
-      </c>
-      <c r="C575" s="18" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D575" s="18" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E575" s="19">
-        <f t="shared" ref="E575" si="9">LEN(D575)</f>
-        <v>185</v>
-      </c>
-      <c r="F575" s="20"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F575" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F569" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
